--- a/biology/Botanique/Boletus_leptospermi/Boletus_leptospermi.xlsx
+++ b/biology/Botanique/Boletus_leptospermi/Boletus_leptospermi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus leptospermi, en français Bolet des Leptospermum ou Bolet des arbres à thé, est une espèce de champignons du genre Boletus dans la famille des Boletaceae. Il pousse en Australie et en Nouvelle-Zélande dans les buissons de Leptospermum. Il est proche phylogénétiquement de Boletus subtomentosus et de Boletus lanatus.[réf. nécessaire]
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus leptospermi McNabb 1968[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus leptospermi McNabb 1968.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore brun ; hyménium à tubes crème, bleuissant au toucher ; pied brun.
 </t>
@@ -573,7 +589,9 @@
           <t>Écologie, habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon pousse en automne au pied des buissons de Leptospermum en Australie et Nouvelle-Zélande.
 </t>
